--- a/map/map.xlsx
+++ b/map/map.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/1596853_tmc_twfr_toyota_co_jp/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdai1\GIT\conflict-based-search\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF40CF-E053-4976-AEA3-1A2350AE56C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13665"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="map" sheetId="1" r:id="rId1"/>
-    <sheet name="name" sheetId="4" r:id="rId2"/>
+    <sheet name="agents" sheetId="5" r:id="rId1"/>
+    <sheet name="map" sheetId="1" r:id="rId2"/>
+    <sheet name="name" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="39">
   <si>
     <t>.</t>
     <phoneticPr fontId="1"/>
@@ -156,11 +158,27 @@
     <t>pick_8_7</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>init_position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G13</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,19 +512,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30E765-E57D-47E0-A780-F2C67AAC5A60}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="28.9" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.09765625" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="5.125" style="1"/>
+    <col min="1" max="16384" width="5.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -616,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -726,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -836,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -946,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1166,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2156,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2266,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2486,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2706,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2816,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2926,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -3036,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -3263,20 +3321,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="28.9" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.09765625" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="5.125" style="1"/>
+    <col min="1" max="16384" width="5.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3386,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3496,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3606,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +3774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3826,7 +3884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3936,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4156,7 +4214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4266,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4376,7 +4434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -4486,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4596,7 +4654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -4706,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4816,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -4926,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -5036,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -5146,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -5256,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -5366,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -5476,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -5586,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -5696,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -5806,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -5916,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -6034,6 +6092,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D0BB689BD26B84BA282E6D9CF3FDF21" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5d62e768581951ef54ac8898e5ac636b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0027cc79-339f-4d1a-8619-966c060bb560" xmlns:ns4="363ad6d6-8e13-4d1a-b321-414a9449fc18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0118aede4bb3a362b237ab746dcb4260" ns3:_="" ns4:_="">
     <xsd:import namespace="0027cc79-339f-4d1a-8619-966c060bb560"/>
@@ -6242,22 +6315,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C77A44-1FB2-4E19-93B8-F60FE118FD4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B2DA400-0705-4C6D-B706-E3E4C70CE5D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6274,29 +6357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C77A44-1FB2-4E19-93B8-F60FE118FD4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>